--- a/江西/导出模板/代理购电,月度交易合同分析结果.xlsx
+++ b/江西/导出模板/代理购电,月度交易合同分析结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F1C78C2-9ABB-4A50-96F3-C31C8E8B4B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D43236-D1E6-41D2-87D4-750731ED3D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -129,7 +129,10 @@
     <t>峰平谷统计</t>
   </si>
   <si>
-    <t>机组名称</t>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>中长期持仓均价-中长期折算日前加权均价（元/MWh）</t>
   </si>
   <si>
     <t>合同电费</t>
@@ -257,20 +260,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,6 +283,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -555,60 +626,60 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.36328125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1">
         <v>405.37675239999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>399.30817442500012</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>6.0685779749998821</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8791.23</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>461.11494341519898</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>454.21195262210193</v>
       </c>
     </row>
@@ -625,867 +696,867 @@
   </sheetPr>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>2039216.0040000002</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>103447.254</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>106959.788</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>111298.36500000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>74272.781000000003</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>75386.390999999989</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>61781.322999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>78422.951000000001</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>67387.421999999991</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>57441.297999999995</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>78412.040999999997</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>156112.18400000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>74008.525000000009</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>103465.48</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>78344.251999999993</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>39411.449999999997</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>109102.54100000001</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>118232.75799999999</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>98698.942999999999</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>44340.027000000002</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>59817.321000000004</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>102923.064</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>60101.687999999995</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>100565.117</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>79283.040000000008</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
+        <v>4446.16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>183.2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>231.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>206.10000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>173.61</v>
+      </c>
+      <c r="I3" s="1">
+        <v>166.13</v>
+      </c>
+      <c r="J3" s="1">
+        <v>169.18</v>
+      </c>
+      <c r="K3" s="1">
+        <v>223.72000000000003</v>
+      </c>
+      <c r="L3" s="1">
+        <v>163.26</v>
+      </c>
+      <c r="M3" s="1">
+        <v>201.79</v>
+      </c>
+      <c r="N3" s="1">
+        <v>199.28</v>
+      </c>
+      <c r="O3" s="1">
+        <v>242.43</v>
+      </c>
+      <c r="P3" s="1">
+        <v>125.97</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>227.57999999999998</v>
+      </c>
+      <c r="R3" s="1">
+        <v>149.82000000000002</v>
+      </c>
+      <c r="S3" s="1">
+        <v>89.12</v>
+      </c>
+      <c r="T3" s="1">
+        <v>192.01</v>
+      </c>
+      <c r="U3" s="1">
+        <v>267.74</v>
+      </c>
+      <c r="V3" s="1">
+        <v>188.72</v>
+      </c>
+      <c r="W3" s="1">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="X3" s="1">
+        <v>158.05000000000001</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>221.35000000000002</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>162.76</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>195.5</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>154.13999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>458.64656332655602</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1">
+        <v>564.66841703056775</v>
+      </c>
+      <c r="F4" s="1">
+        <v>462.02932181425484</v>
+      </c>
+      <c r="G4" s="1">
+        <v>540.02117903930127</v>
+      </c>
+      <c r="H4" s="1">
+        <v>427.81395656932204</v>
+      </c>
+      <c r="I4" s="1">
+        <v>453.77951604165406</v>
+      </c>
+      <c r="J4" s="1">
+        <v>365.18100839342708</v>
+      </c>
+      <c r="K4" s="1">
+        <v>350.54063561594847</v>
+      </c>
+      <c r="L4" s="1">
+        <v>412.76137449467103</v>
+      </c>
+      <c r="M4" s="1">
+        <v>284.65879379553002</v>
+      </c>
+      <c r="N4" s="1">
+        <v>393.4767211963067</v>
+      </c>
+      <c r="O4" s="1">
+        <v>643.94746524770039</v>
+      </c>
+      <c r="P4" s="1">
+        <v>587.50912915773608</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>454.63344757887336</v>
+      </c>
+      <c r="R4" s="1">
+        <v>522.92252035776255</v>
+      </c>
+      <c r="S4" s="1">
+        <v>442.22901705565522</v>
+      </c>
+      <c r="T4" s="1">
+        <v>568.21280662465506</v>
+      </c>
+      <c r="U4" s="1">
+        <v>441.59542093075368</v>
+      </c>
+      <c r="V4" s="1">
+        <v>522.99143175074187</v>
+      </c>
+      <c r="W4" s="1">
+        <v>289.42576370757183</v>
+      </c>
+      <c r="X4" s="1">
+        <v>378.4708699778551</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>464.97882990738646</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>369.26571639223397</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>514.39957544757033</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>514.35733748540292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>465.95496085386043</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I5" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J5" s="1">
+        <v>302.74999999999994</v>
+      </c>
+      <c r="K5" s="1">
+        <v>401.0499999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M5" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N5" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O5" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P5" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>294.00000000000006</v>
+      </c>
+      <c r="R5" s="1">
+        <v>315</v>
+      </c>
+      <c r="S5" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T5" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>585.49999999999989</v>
+      </c>
+      <c r="V5" s="1">
+        <v>668</v>
+      </c>
+      <c r="W5" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X5" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>429.15000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45000</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>-7.3083975273044075</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1">
+        <v>219.36841703056774</v>
+      </c>
+      <c r="F6" s="1">
+        <v>160.27932181425484</v>
+      </c>
+      <c r="G6" s="1">
+        <v>255.27117903930127</v>
+      </c>
+      <c r="H6" s="1">
+        <v>175.06395656932204</v>
+      </c>
+      <c r="I6" s="1">
+        <v>191.52951604165406</v>
+      </c>
+      <c r="J6" s="1">
+        <v>62.431008393427135</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-50.509364384051423</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-76.488625505329026</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-244.09120620446998</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-115.7732788036933</v>
+      </c>
+      <c r="O6" s="1">
+        <v>195.59746524770037</v>
+      </c>
+      <c r="P6" s="1">
+        <v>188.30912915773604</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>160.6334475788733</v>
+      </c>
+      <c r="R6" s="1">
+        <v>207.92252035776255</v>
+      </c>
+      <c r="S6" s="1">
+        <v>66.079017055655243</v>
+      </c>
+      <c r="T6" s="1">
+        <v>90.412806624655047</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-143.90457906924621</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-145.00856824925813</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-466.82423629242817</v>
+      </c>
+      <c r="X6" s="1">
+        <v>-371.0291300221449</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>-277.02117009261354</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-300.48428360776603</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-40.972924552429618</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>85.207337485402888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
+        <v>2014551.5199999998</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
-        <v>564.66841703056775</v>
-      </c>
-      <c r="F3" s="2">
-        <v>462.02932181425484</v>
-      </c>
-      <c r="G3" s="2">
-        <v>540.02117903930127</v>
-      </c>
-      <c r="H3" s="2">
-        <v>427.81395656932204</v>
-      </c>
-      <c r="I3" s="2">
-        <v>453.77951604165406</v>
-      </c>
-      <c r="J3" s="2">
-        <v>365.18100839342708</v>
-      </c>
-      <c r="K3" s="2">
-        <v>350.54063561594847</v>
-      </c>
-      <c r="L3" s="2">
-        <v>412.76137449467103</v>
-      </c>
-      <c r="M3" s="2">
-        <v>284.65879379553002</v>
-      </c>
-      <c r="N3" s="2">
-        <v>393.4767211963067</v>
-      </c>
-      <c r="O3" s="2">
-        <v>643.94746524770039</v>
-      </c>
-      <c r="P3" s="2">
-        <v>587.50912915773608</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>454.63344757887336</v>
-      </c>
-      <c r="R3" s="2">
-        <v>522.92252035776255</v>
-      </c>
-      <c r="S3" s="2">
-        <v>442.22901705565522</v>
-      </c>
-      <c r="T3" s="2">
-        <v>568.21280662465506</v>
-      </c>
-      <c r="U3" s="2">
-        <v>441.59542093075368</v>
-      </c>
-      <c r="V3" s="2">
-        <v>522.99143175074187</v>
-      </c>
-      <c r="W3" s="2">
-        <v>289.42576370757183</v>
-      </c>
-      <c r="X3" s="2">
-        <v>378.4708699778551</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>464.97882990738646</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>369.26571639223397</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>514.39957544757033</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>514.35733748540292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
-        <v>465.95496085386043</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E7" s="1">
+        <v>124020.16800000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>90939.155999999988</v>
+      </c>
+      <c r="G7" s="1">
+        <v>125256.68499999998</v>
+      </c>
+      <c r="H7" s="1">
+        <v>77900.948000000004</v>
+      </c>
+      <c r="I7" s="1">
+        <v>104934.386</v>
+      </c>
+      <c r="J7" s="1">
+        <v>86721.437000000005</v>
+      </c>
+      <c r="K7" s="1">
+        <v>55794.233999999997</v>
+      </c>
+      <c r="L7" s="1">
+        <v>83869.226999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>58592.809000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>87261.417000000001</v>
+      </c>
+      <c r="O7" s="1">
+        <v>86016.789000000004</v>
+      </c>
+      <c r="P7" s="1">
+        <v>120425.98999999999</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>74666.405999999988</v>
+      </c>
+      <c r="R7" s="1">
+        <v>72966.14499999999</v>
+      </c>
+      <c r="S7" s="1">
+        <v>54062.383000000002</v>
+      </c>
+      <c r="T7" s="1">
+        <v>91988.426999999996</v>
+      </c>
+      <c r="U7" s="1">
+        <v>79901.539000000004</v>
+      </c>
+      <c r="V7" s="1">
+        <v>81566.523000000001</v>
+      </c>
+      <c r="W7" s="1">
+        <v>93256.32799999998</v>
+      </c>
+      <c r="X7" s="1">
+        <v>98190.04</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>44921.093000000001</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>80158.444000000003</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>89867.938999999998</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>51273.006999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1">
+        <v>4345.07</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>219.38</v>
+      </c>
+      <c r="F8" s="1">
+        <v>210.76</v>
+      </c>
+      <c r="G8" s="1">
+        <v>201.43</v>
+      </c>
+      <c r="H8" s="1">
+        <v>267.27999999999997</v>
+      </c>
+      <c r="I8" s="1">
+        <v>220.60000000000002</v>
+      </c>
+      <c r="J8" s="1">
+        <v>158.81</v>
+      </c>
+      <c r="K8" s="1">
+        <v>122.18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>137.38999999999999</v>
+      </c>
+      <c r="M8" s="1">
+        <v>165</v>
+      </c>
+      <c r="N8" s="1">
+        <v>177.45000000000002</v>
+      </c>
+      <c r="O8" s="1">
+        <v>198.6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>191.57</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>197.04000000000002</v>
+      </c>
+      <c r="R8" s="1">
+        <v>217.10000000000002</v>
+      </c>
+      <c r="S8" s="1">
+        <v>124.72</v>
+      </c>
+      <c r="T8" s="1">
+        <v>196.84000000000003</v>
+      </c>
+      <c r="U8" s="1">
+        <v>183.83</v>
+      </c>
+      <c r="V8" s="1">
+        <v>146.78</v>
+      </c>
+      <c r="W8" s="1">
+        <v>201.98</v>
+      </c>
+      <c r="X8" s="1">
+        <v>186.34</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>114.72999999999999</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>191.85</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>146.13999999999999</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>167.26999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1">
+        <v>463.64075147235832</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.74999999999994</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.0499999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294.00000000000006</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.49999999999989</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4446.16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>183.2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>231.5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>206.10000000000002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>173.61</v>
-      </c>
-      <c r="I5" s="2">
-        <v>166.13</v>
-      </c>
-      <c r="J5" s="2">
-        <v>169.18</v>
-      </c>
-      <c r="K5" s="2">
-        <v>223.72000000000003</v>
-      </c>
-      <c r="L5" s="2">
-        <v>163.26</v>
-      </c>
-      <c r="M5" s="2">
-        <v>201.79</v>
-      </c>
-      <c r="N5" s="2">
-        <v>199.28</v>
-      </c>
-      <c r="O5" s="2">
-        <v>242.43</v>
-      </c>
-      <c r="P5" s="2">
-        <v>125.97</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>227.57999999999998</v>
-      </c>
-      <c r="R5" s="2">
-        <v>149.82000000000002</v>
-      </c>
-      <c r="S5" s="2">
-        <v>89.12</v>
-      </c>
-      <c r="T5" s="2">
-        <v>192.01</v>
-      </c>
-      <c r="U5" s="2">
-        <v>267.74</v>
-      </c>
-      <c r="V5" s="2">
-        <v>188.72</v>
-      </c>
-      <c r="W5" s="2">
-        <v>153.19999999999999</v>
-      </c>
-      <c r="X5" s="2">
-        <v>158.05000000000001</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>221.35000000000002</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>162.76</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>195.5</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>154.13999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>-7.3083975273044075</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E9" s="1">
+        <v>565.32121433129737</v>
+      </c>
+      <c r="F9" s="1">
+        <v>431.48204592901874</v>
+      </c>
+      <c r="G9" s="1">
+        <v>621.83728838802551</v>
+      </c>
+      <c r="H9" s="1">
+        <v>291.45820113738404</v>
+      </c>
+      <c r="I9" s="1">
+        <v>475.67718041704438</v>
+      </c>
+      <c r="J9" s="1">
+        <v>546.07037969901137</v>
+      </c>
+      <c r="K9" s="1">
+        <v>456.65603208381071</v>
+      </c>
+      <c r="L9" s="1">
+        <v>610.44637164276878</v>
+      </c>
+      <c r="M9" s="1">
+        <v>355.10793333333334</v>
+      </c>
+      <c r="N9" s="1">
+        <v>491.75213863060014</v>
+      </c>
+      <c r="O9" s="1">
+        <v>433.11575528700911</v>
+      </c>
+      <c r="P9" s="1">
+        <v>628.62655948217355</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>378.94034713763693</v>
+      </c>
+      <c r="R9" s="1">
+        <v>336.09463380930441</v>
+      </c>
+      <c r="S9" s="1">
+        <v>433.47003688261708</v>
+      </c>
+      <c r="T9" s="1">
+        <v>467.32588396667336</v>
+      </c>
+      <c r="U9" s="1">
+        <v>434.64907251264754</v>
+      </c>
+      <c r="V9" s="1">
+        <v>555.70597492846434</v>
+      </c>
+      <c r="W9" s="1">
+        <v>461.71070403010191</v>
+      </c>
+      <c r="X9" s="1">
+        <v>526.94021680798539</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>391.53746186699209</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>417.81831639301538</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>614.94415628849049</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>306.52840915884502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>45001</v>
+      </c>
+      <c r="C10">
+        <v>442.19573804334561</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="2">
-        <v>219.36841703056774</v>
-      </c>
-      <c r="F6" s="2">
-        <v>160.27932181425484</v>
-      </c>
-      <c r="G6" s="2">
-        <v>255.27117903930127</v>
-      </c>
-      <c r="H6" s="2">
-        <v>175.06395656932204</v>
-      </c>
-      <c r="I6" s="2">
-        <v>191.52951604165406</v>
-      </c>
-      <c r="J6" s="2">
-        <v>62.431008393427135</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-50.509364384051423</v>
-      </c>
-      <c r="L6" s="2">
-        <v>-76.488625505329026</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-244.09120620446998</v>
-      </c>
-      <c r="N6" s="2">
-        <v>-115.7732788036933</v>
-      </c>
-      <c r="O6" s="2">
-        <v>195.59746524770037</v>
-      </c>
-      <c r="P6" s="2">
-        <v>188.30912915773604</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>160.6334475788733</v>
-      </c>
-      <c r="R6" s="2">
-        <v>207.92252035776255</v>
-      </c>
-      <c r="S6" s="2">
-        <v>66.079017055655243</v>
-      </c>
-      <c r="T6" s="2">
-        <v>90.412806624655047</v>
-      </c>
-      <c r="U6" s="2">
-        <v>-143.90457906924621</v>
-      </c>
-      <c r="V6" s="2">
-        <v>-145.00856824925813</v>
-      </c>
-      <c r="W6" s="2">
-        <v>-466.82423629242817</v>
-      </c>
-      <c r="X6" s="2">
-        <v>-371.0291300221449</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>-277.02117009261354</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>-300.48428360776603</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>-40.972924552429618</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>85.207337485402888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
-        <v>2014551.5199999998</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2">
-        <v>124020.16800000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>90939.155999999988</v>
-      </c>
-      <c r="G7" s="2">
-        <v>125256.68499999998</v>
-      </c>
-      <c r="H7" s="2">
-        <v>77900.948000000004</v>
-      </c>
-      <c r="I7" s="2">
-        <v>104934.386</v>
-      </c>
-      <c r="J7" s="2">
-        <v>86721.437000000005</v>
-      </c>
-      <c r="K7" s="2">
-        <v>55794.233999999997</v>
-      </c>
-      <c r="L7" s="2">
-        <v>83869.226999999999</v>
-      </c>
-      <c r="M7" s="2">
-        <v>58592.809000000001</v>
-      </c>
-      <c r="N7" s="2">
-        <v>87261.417000000001</v>
-      </c>
-      <c r="O7" s="2">
-        <v>86016.789000000004</v>
-      </c>
-      <c r="P7" s="2">
-        <v>120425.98999999999</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>74666.405999999988</v>
-      </c>
-      <c r="R7" s="2">
-        <v>72966.14499999999</v>
-      </c>
-      <c r="S7" s="2">
-        <v>54062.383000000002</v>
-      </c>
-      <c r="T7" s="2">
-        <v>91988.426999999996</v>
-      </c>
-      <c r="U7" s="2">
-        <v>79901.539000000004</v>
-      </c>
-      <c r="V7" s="2">
-        <v>81566.523000000001</v>
-      </c>
-      <c r="W7" s="2">
-        <v>93256.32799999998</v>
-      </c>
-      <c r="X7" s="2">
-        <v>98190.04</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>44921.093000000001</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>80158.444000000003</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>89867.938999999998</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>51273.006999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="2">
-        <v>463.64075147235832</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2">
-        <v>565.32121433129737</v>
-      </c>
-      <c r="F8" s="2">
-        <v>431.48204592901874</v>
-      </c>
-      <c r="G8" s="2">
-        <v>621.83728838802551</v>
-      </c>
-      <c r="H8" s="2">
-        <v>291.45820113738404</v>
-      </c>
-      <c r="I8" s="2">
-        <v>475.67718041704438</v>
-      </c>
-      <c r="J8" s="2">
-        <v>546.07037969901137</v>
-      </c>
-      <c r="K8" s="2">
-        <v>456.65603208381071</v>
-      </c>
-      <c r="L8" s="2">
-        <v>610.44637164276878</v>
-      </c>
-      <c r="M8" s="2">
-        <v>355.10793333333334</v>
-      </c>
-      <c r="N8" s="2">
-        <v>491.75213863060014</v>
-      </c>
-      <c r="O8" s="2">
-        <v>433.11575528700911</v>
-      </c>
-      <c r="P8" s="2">
-        <v>628.62655948217355</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>378.94034713763693</v>
-      </c>
-      <c r="R8" s="2">
-        <v>336.09463380930441</v>
-      </c>
-      <c r="S8" s="2">
-        <v>433.47003688261708</v>
-      </c>
-      <c r="T8" s="2">
-        <v>467.32588396667336</v>
-      </c>
-      <c r="U8" s="2">
-        <v>434.64907251264754</v>
-      </c>
-      <c r="V8" s="2">
-        <v>555.70597492846434</v>
-      </c>
-      <c r="W8" s="2">
-        <v>461.71070403010191</v>
-      </c>
-      <c r="X8" s="2">
-        <v>526.94021680798539</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>391.53746186699209</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>417.81831639301538</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>614.94415628849049</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>306.52840915884502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2">
-        <v>442.19573804334561</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="E10">
         <v>406.27602858054519</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10">
         <v>619.3015206870374</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10">
         <v>512.07661929702624</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10">
         <v>336.44958863364263</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10">
         <v>446.96589925203989</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J10">
         <v>425.87022007430261</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10">
         <v>447.45577488132261</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L10">
         <v>585.75695356285041</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M10">
         <v>434.62218727272722</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N10">
         <v>497.703078613694</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O10">
         <v>377.90879833836857</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P10">
         <v>366.9171167197369</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q10">
         <v>519.60929963459193</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R10">
         <v>507.11822547213268</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S10">
         <v>522.33339400256568</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T10">
         <v>434.31832008230037</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U10">
         <v>339.18672781918076</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V10">
         <v>401.80881353045379</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W10">
         <v>317.01590801069415</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X10">
         <v>327.9334061393152</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Y10">
         <v>306.18572866730585</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="Z10">
         <v>510.00722009382332</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AA10">
         <v>554.39363897632416</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB10" s="1">
         <v>468.19285645961628</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>45001</v>
-      </c>
-      <c r="C10">
-        <v>4345.07</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>219.38</v>
-      </c>
-      <c r="F10">
-        <v>210.76</v>
-      </c>
-      <c r="G10">
-        <v>201.43</v>
-      </c>
-      <c r="H10">
-        <v>267.27999999999997</v>
-      </c>
-      <c r="I10">
-        <v>220.60000000000002</v>
-      </c>
-      <c r="J10">
-        <v>158.81</v>
-      </c>
-      <c r="K10">
-        <v>122.18</v>
-      </c>
-      <c r="L10">
-        <v>137.38999999999999</v>
-      </c>
-      <c r="M10">
-        <v>165</v>
-      </c>
-      <c r="N10">
-        <v>177.45000000000002</v>
-      </c>
-      <c r="O10">
-        <v>198.6</v>
-      </c>
-      <c r="P10">
-        <v>191.57</v>
-      </c>
-      <c r="Q10">
-        <v>197.04000000000002</v>
-      </c>
-      <c r="R10">
-        <v>217.10000000000002</v>
-      </c>
-      <c r="S10">
-        <v>124.72</v>
-      </c>
-      <c r="T10">
-        <v>196.84000000000003</v>
-      </c>
-      <c r="U10">
-        <v>183.83</v>
-      </c>
-      <c r="V10">
-        <v>146.78</v>
-      </c>
-      <c r="W10">
-        <v>201.98</v>
-      </c>
-      <c r="X10">
-        <v>186.34</v>
-      </c>
-      <c r="Y10">
-        <v>114.72999999999999</v>
-      </c>
-      <c r="Z10">
-        <v>191.85</v>
-      </c>
-      <c r="AA10">
-        <v>146.13999999999999</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>167.26999999999998</v>
-      </c>
-    </row>
     <row r="11" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>45001</v>
       </c>
       <c r="C11">
         <v>21.445013429012704</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="E11">
         <v>159.04518575075218</v>
@@ -1556,7 +1627,7 @@
       <c r="AA11">
         <v>60.550517312166335</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="1">
         <v>-161.66444730077126</v>
       </c>
     </row>
@@ -1579,440 +1650,440 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11" style="2"/>
+    <col min="1" max="1" width="10.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="28" max="28" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>2039216.0040000002</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1">
         <v>103447.254</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>106959.788</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>111298.36500000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>74272.781000000003</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>75386.390999999989</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>61781.322999999997</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>78422.951000000001</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>67387.421999999991</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>57441.297999999995</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>78412.040999999997</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>156112.18400000001</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>74008.525000000009</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>103465.48</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>78344.251999999993</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>39411.449999999997</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>109102.54100000001</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>118232.75799999999</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>98698.942999999999</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>44340.027000000002</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>59817.321000000004</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>102923.064</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>60101.687999999995</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>100565.117</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>79283.040000000008</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>2071710.3087500001</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1">
         <v>63258.96</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>69855.125</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>58686.975000000006</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>43879.927500000005</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>43567.592499999999</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>51219.244999999995</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>89722.905999999988</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>79874.955000000002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>106696.46249999999</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>101483.34</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>108693.49050000001</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>50287.224000000002</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>66908.52</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>47193.3</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>33522.487999999998</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>91742.377999999997</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>156761.76999999999</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>126064.96000000001</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>115857.5</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>118458.47500000001</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>164241.70000000001</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>109008.51</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>108575.32374999998</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>66149.180999999997</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1">
         <v>40188.294000000002</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>37104.663</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>52611.39</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>30392.853499999997</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>31818.79849999999</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>10562.078000000001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>-11299.954999999987</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>-12487.53300000001</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>-49255.164499999999</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>-23071.298999999999</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>47418.693499999994</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>23721.301000000007</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>36556.959999999992</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>31150.95199999999</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <v>5888.9619999999995</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="1">
         <v>17360.163000000015</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="1">
         <v>-38529.012000000002</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="1">
         <v>-27366.017000000007</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="1">
         <v>-71517.472999999998</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="1">
         <v>-58641.154000000002</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="1">
         <v>-61318.636000000013</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="1">
         <v>-48906.822</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="1">
         <v>-8010.206749999983</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="1">
         <v>13133.859000000011</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
         <v>2014551.5199999998</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1">
         <v>124020.16800000001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>90939.155999999988</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>125256.68499999998</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>77900.948000000004</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>104934.386</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>86721.437000000005</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>55794.233999999997</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>83869.226999999999</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>58592.809000000001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>87261.417000000001</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>86016.789000000004</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>120425.98999999999</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <v>74666.405999999988</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>72966.14499999999</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <v>54062.383000000002</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="1">
         <v>91988.426999999996</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="1">
         <v>79901.539000000004</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="1">
         <v>81566.523000000001</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="1">
         <v>93256.32799999998</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="1">
         <v>98190.04</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="1">
         <v>44921.093000000001</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="1">
         <v>80158.444000000003</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="1">
         <v>89867.938999999998</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="1">
         <v>51273.006999999998</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>45001</v>
       </c>
       <c r="C6">
         <v>1921371.4354999997</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E6">
         <v>89128.835149999999</v>
@@ -2083,16 +2154,16 @@
       <c r="AA6">
         <v>81019.0864</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="1">
         <v>78314.619100000011</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E7">
         <v>34891.332850000006</v>
@@ -2163,12 +2234,12 @@
       <c r="AA7">
         <v>8848.8525999999983</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>-27041.612100000013</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2189,596 +2260,596 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="29.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>45000</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2">
+      <c r="B2" s="5"/>
+      <c r="C2" s="1">
         <v>4446.16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>183.2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>231.5</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>206.10000000000002</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>173.61</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>166.13</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>169.18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>223.72000000000003</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>163.26</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>201.79</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>199.28</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>242.43</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>125.97</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>227.57999999999998</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>149.82000000000002</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>89.12</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>192.01</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>267.74</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>188.72</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>153.19999999999999</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>158.05000000000001</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="1">
         <v>221.35000000000002</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="1">
         <v>162.76</v>
       </c>
-      <c r="AA2" s="2">
+      <c r="AA2" s="1">
         <v>195.5</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="1">
         <v>154.13999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>45000</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1">
         <v>458.64656332655602</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1">
         <v>564.66841703056775</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>462.02932181425484</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>540.02117903930127</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>427.81395656932204</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>453.77951604165406</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>365.18100839342708</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>350.54063561594847</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>412.76137449467103</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>284.65879379553002</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <v>393.4767211963067</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>643.94746524770039</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>587.50912915773608</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <v>454.63344757887336</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>522.92252035776255</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="1">
         <v>442.22901705565522</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="1">
         <v>568.21280662465506</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="1">
         <v>441.59542093075368</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V3" s="1">
         <v>522.99143175074187</v>
       </c>
-      <c r="W3" s="2">
+      <c r="W3" s="1">
         <v>289.42576370757183</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="1">
         <v>378.4708699778551</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Y3" s="1">
         <v>464.97882990738646</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="1">
         <v>369.26571639223397</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AA3" s="1">
         <v>514.39957544757033</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="1">
         <v>514.35733748540292</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>45000</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="1">
         <v>465.95496085386043</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>345.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>301.75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>284.75</v>
+      </c>
+      <c r="H4" s="1">
+        <v>252.75</v>
+      </c>
+      <c r="I4" s="1">
+        <v>262.25</v>
+      </c>
+      <c r="J4" s="1">
+        <v>302.74999999999994</v>
+      </c>
+      <c r="K4" s="1">
+        <v>401.0499999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>489.25000000000006</v>
+      </c>
+      <c r="M4" s="1">
+        <v>528.75</v>
+      </c>
+      <c r="N4" s="1">
+        <v>509.25</v>
+      </c>
+      <c r="O4" s="1">
+        <v>448.35</v>
+      </c>
+      <c r="P4" s="1">
+        <v>399.20000000000005</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>294.00000000000006</v>
+      </c>
+      <c r="R4" s="1">
+        <v>315</v>
+      </c>
+      <c r="S4" s="1">
+        <v>376.15</v>
+      </c>
+      <c r="T4" s="1">
+        <v>477.8</v>
+      </c>
+      <c r="U4" s="1">
+        <v>585.49999999999989</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668</v>
+      </c>
+      <c r="W4" s="1">
+        <v>756.25</v>
+      </c>
+      <c r="X4" s="1">
+        <v>749.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>742</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>669.75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>555.37249999999995</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>429.15000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1">
+        <v>4345.07</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>219.38</v>
+      </c>
+      <c r="F5" s="1">
+        <v>210.76</v>
+      </c>
+      <c r="G5" s="1">
+        <v>201.43</v>
+      </c>
+      <c r="H5" s="1">
+        <v>267.27999999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>220.60000000000002</v>
+      </c>
+      <c r="J5" s="1">
+        <v>158.81</v>
+      </c>
+      <c r="K5" s="1">
+        <v>122.18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>137.38999999999999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>165</v>
+      </c>
+      <c r="N5" s="1">
+        <v>177.45000000000002</v>
+      </c>
+      <c r="O5" s="1">
+        <v>198.6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>191.57</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>197.04000000000002</v>
+      </c>
+      <c r="R5" s="1">
+        <v>217.10000000000002</v>
+      </c>
+      <c r="S5" s="1">
+        <v>124.72</v>
+      </c>
+      <c r="T5" s="1">
+        <v>196.84000000000003</v>
+      </c>
+      <c r="U5" s="1">
+        <v>183.83</v>
+      </c>
+      <c r="V5" s="1">
+        <v>146.78</v>
+      </c>
+      <c r="W5" s="1">
+        <v>201.98</v>
+      </c>
+      <c r="X5" s="1">
+        <v>186.34</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>114.72999999999999</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>191.85</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>146.13999999999999</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>167.26999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>45001</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1">
+        <v>463.64075147235832</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2">
-        <v>345.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>301.75</v>
-      </c>
-      <c r="G4" s="2">
-        <v>284.75</v>
-      </c>
-      <c r="H4" s="2">
-        <v>252.75</v>
-      </c>
-      <c r="I4" s="2">
-        <v>262.25</v>
-      </c>
-      <c r="J4" s="2">
-        <v>302.74999999999994</v>
-      </c>
-      <c r="K4" s="2">
-        <v>401.0499999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <v>489.25000000000006</v>
-      </c>
-      <c r="M4" s="2">
-        <v>528.75</v>
-      </c>
-      <c r="N4" s="2">
-        <v>509.25</v>
-      </c>
-      <c r="O4" s="2">
-        <v>448.35</v>
-      </c>
-      <c r="P4" s="2">
-        <v>399.20000000000005</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>294.00000000000006</v>
-      </c>
-      <c r="R4" s="2">
-        <v>315</v>
-      </c>
-      <c r="S4" s="2">
-        <v>376.15</v>
-      </c>
-      <c r="T4" s="2">
-        <v>477.8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>585.49999999999989</v>
-      </c>
-      <c r="V4" s="2">
-        <v>668</v>
-      </c>
-      <c r="W4" s="2">
-        <v>756.25</v>
-      </c>
-      <c r="X4" s="2">
-        <v>749.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>742</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>669.75</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>555.37249999999995</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>429.15000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="E6" s="1">
+        <v>565.32121433129737</v>
+      </c>
+      <c r="F6" s="1">
+        <v>431.48204592901874</v>
+      </c>
+      <c r="G6" s="1">
+        <v>621.83728838802551</v>
+      </c>
+      <c r="H6" s="1">
+        <v>291.45820113738404</v>
+      </c>
+      <c r="I6" s="1">
+        <v>475.67718041704438</v>
+      </c>
+      <c r="J6" s="1">
+        <v>546.07037969901137</v>
+      </c>
+      <c r="K6" s="1">
+        <v>456.65603208381071</v>
+      </c>
+      <c r="L6" s="1">
+        <v>610.44637164276878</v>
+      </c>
+      <c r="M6" s="1">
+        <v>355.10793333333334</v>
+      </c>
+      <c r="N6" s="1">
+        <v>491.75213863060014</v>
+      </c>
+      <c r="O6" s="1">
+        <v>433.11575528700911</v>
+      </c>
+      <c r="P6" s="1">
+        <v>628.62655948217355</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>378.94034713763693</v>
+      </c>
+      <c r="R6" s="1">
+        <v>336.09463380930441</v>
+      </c>
+      <c r="S6" s="1">
+        <v>433.47003688261708</v>
+      </c>
+      <c r="T6" s="1">
+        <v>467.32588396667336</v>
+      </c>
+      <c r="U6" s="1">
+        <v>434.64907251264754</v>
+      </c>
+      <c r="V6" s="1">
+        <v>555.70597492846434</v>
+      </c>
+      <c r="W6" s="1">
+        <v>461.71070403010191</v>
+      </c>
+      <c r="X6" s="1">
+        <v>526.94021680798539</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>391.53746186699209</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>417.81831639301538</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>614.94415628849049</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>306.52840915884502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>45001</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2">
-        <v>4345.07</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>219.38</v>
-      </c>
-      <c r="F5" s="2">
-        <v>210.76</v>
-      </c>
-      <c r="G5" s="2">
-        <v>201.43</v>
-      </c>
-      <c r="H5" s="2">
-        <v>267.27999999999997</v>
-      </c>
-      <c r="I5" s="2">
-        <v>220.60000000000002</v>
-      </c>
-      <c r="J5" s="2">
-        <v>158.81</v>
-      </c>
-      <c r="K5" s="2">
-        <v>122.18</v>
-      </c>
-      <c r="L5" s="2">
-        <v>137.38999999999999</v>
-      </c>
-      <c r="M5" s="2">
-        <v>165</v>
-      </c>
-      <c r="N5" s="2">
-        <v>177.45000000000002</v>
-      </c>
-      <c r="O5" s="2">
-        <v>198.6</v>
-      </c>
-      <c r="P5" s="2">
-        <v>191.57</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>197.04000000000002</v>
-      </c>
-      <c r="R5" s="2">
-        <v>217.10000000000002</v>
-      </c>
-      <c r="S5" s="2">
-        <v>124.72</v>
-      </c>
-      <c r="T5" s="2">
-        <v>196.84000000000003</v>
-      </c>
-      <c r="U5" s="2">
-        <v>183.83</v>
-      </c>
-      <c r="V5" s="2">
-        <v>146.78</v>
-      </c>
-      <c r="W5" s="2">
-        <v>201.98</v>
-      </c>
-      <c r="X5" s="2">
-        <v>186.34</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>114.72999999999999</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>191.85</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>146.13999999999999</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>167.26999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2">
-        <v>463.64075147235832</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2">
-        <v>565.32121433129737</v>
-      </c>
-      <c r="F6" s="2">
-        <v>431.48204592901874</v>
-      </c>
-      <c r="G6" s="2">
-        <v>621.83728838802551</v>
-      </c>
-      <c r="H6" s="2">
-        <v>291.45820113738404</v>
-      </c>
-      <c r="I6" s="2">
-        <v>475.67718041704438</v>
-      </c>
-      <c r="J6" s="2">
-        <v>546.07037969901137</v>
-      </c>
-      <c r="K6" s="2">
-        <v>456.65603208381071</v>
-      </c>
-      <c r="L6" s="2">
-        <v>610.44637164276878</v>
-      </c>
-      <c r="M6" s="2">
-        <v>355.10793333333334</v>
-      </c>
-      <c r="N6" s="2">
-        <v>491.75213863060014</v>
-      </c>
-      <c r="O6" s="2">
-        <v>433.11575528700911</v>
-      </c>
-      <c r="P6" s="2">
-        <v>628.62655948217355</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>378.94034713763693</v>
-      </c>
-      <c r="R6" s="2">
-        <v>336.09463380930441</v>
-      </c>
-      <c r="S6" s="2">
-        <v>433.47003688261708</v>
-      </c>
-      <c r="T6" s="2">
-        <v>467.32588396667336</v>
-      </c>
-      <c r="U6" s="2">
-        <v>434.64907251264754</v>
-      </c>
-      <c r="V6" s="2">
-        <v>555.70597492846434</v>
-      </c>
-      <c r="W6" s="2">
-        <v>461.71070403010191</v>
-      </c>
-      <c r="X6" s="2">
-        <v>526.94021680798539</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>391.53746186699209</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>417.81831639301538</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>614.94415628849049</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>306.52840915884502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>45001</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="1">
         <v>442.19573804334561</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1">
         <v>406.27602858054519</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>619.3015206870374</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>512.07661929702624</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>336.44958863364263</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>446.96589925203989</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>425.87022007430261</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>447.45577488132261</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>585.75695356285041</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>434.62218727272722</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>497.703078613694</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>377.90879833836857</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>366.9171167197369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>519.60929963459193</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>507.11822547213268</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <v>522.33339400256568</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="1">
         <v>434.31832008230037</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="1">
         <v>339.18672781918076</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="1">
         <v>401.80881353045379</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="1">
         <v>317.01590801069415</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="1">
         <v>327.9334061393152</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="1">
         <v>306.18572866730585</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>510.00722009382332</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="1">
         <v>554.39363897632416</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="1">
         <v>468.19285645961628</v>
       </c>
     </row>
@@ -2801,7 +2872,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2812,56 +2883,56 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="3">
         <v>1035.0799999999997</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1872.7400000000005</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2828.8799999999978</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>3054.5299999999984</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3">
         <v>11.774006595209084</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>21.302366108041767</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>32.178432369531876</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>34.745194927217213</v>
       </c>
     </row>
@@ -2876,104 +2947,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="20.90625" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875"/>
+    <col min="3" max="3" width="29.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20.90625" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" s="4">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/江西/导出模板/代理购电,月度交易合同分析结果.xlsx
+++ b/江西/导出模板/代理购电,月度交易合同分析结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\python\calCase\江西\导出模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35D43236-D1E6-41D2-87D4-750731ED3D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3901A94C-AEE0-4E04-81C1-065C7BA8B926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t>数据项</t>
   </si>
@@ -694,7 +694,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1631,6 +1631,421 @@
         <v>-161.66444730077126</v>
       </c>
     </row>
+    <row r="12" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>4053767.5239999997</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>227467.42199999999</v>
+      </c>
+      <c r="F12">
+        <v>197898.94400000002</v>
+      </c>
+      <c r="G12">
+        <v>236555.05</v>
+      </c>
+      <c r="H12">
+        <v>152173.72899999999</v>
+      </c>
+      <c r="I12">
+        <v>180320.777</v>
+      </c>
+      <c r="J12">
+        <v>148502.76</v>
+      </c>
+      <c r="K12">
+        <v>134217.185</v>
+      </c>
+      <c r="L12">
+        <v>151256.64899999998</v>
+      </c>
+      <c r="M12">
+        <v>116034.10699999999</v>
+      </c>
+      <c r="N12">
+        <v>165673.45799999998</v>
+      </c>
+      <c r="O12">
+        <v>242128.97300000003</v>
+      </c>
+      <c r="P12">
+        <v>194434.51500000001</v>
+      </c>
+      <c r="Q12">
+        <v>178131.886</v>
+      </c>
+      <c r="R12">
+        <v>151310.397</v>
+      </c>
+      <c r="S12">
+        <v>93473.832999999999</v>
+      </c>
+      <c r="T12">
+        <v>201090.96799999999</v>
+      </c>
+      <c r="U12">
+        <v>198134.29699999999</v>
+      </c>
+      <c r="V12">
+        <v>180265.46600000001</v>
+      </c>
+      <c r="W12">
+        <v>137596.35499999998</v>
+      </c>
+      <c r="X12">
+        <v>158007.361</v>
+      </c>
+      <c r="Y12">
+        <v>147844.15700000001</v>
+      </c>
+      <c r="Z12">
+        <v>140260.13199999998</v>
+      </c>
+      <c r="AA12">
+        <v>190433.05599999998</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>130556.04700000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8791.23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>402.58</v>
+      </c>
+      <c r="F13">
+        <v>442.26</v>
+      </c>
+      <c r="G13">
+        <v>407.53000000000003</v>
+      </c>
+      <c r="H13">
+        <v>440.89</v>
+      </c>
+      <c r="I13">
+        <v>386.73</v>
+      </c>
+      <c r="J13">
+        <v>327.99</v>
+      </c>
+      <c r="K13">
+        <v>345.90000000000003</v>
+      </c>
+      <c r="L13">
+        <v>300.64999999999998</v>
+      </c>
+      <c r="M13">
+        <v>366.78999999999996</v>
+      </c>
+      <c r="N13">
+        <v>376.73</v>
+      </c>
+      <c r="O13">
+        <v>441.03</v>
+      </c>
+      <c r="P13">
+        <v>317.53999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>424.62</v>
+      </c>
+      <c r="R13">
+        <v>366.92</v>
+      </c>
+      <c r="S13">
+        <v>213.84</v>
+      </c>
+      <c r="T13">
+        <v>388.85</v>
+      </c>
+      <c r="U13">
+        <v>451.57</v>
+      </c>
+      <c r="V13">
+        <v>335.5</v>
+      </c>
+      <c r="W13">
+        <v>355.17999999999995</v>
+      </c>
+      <c r="X13">
+        <v>344.39</v>
+      </c>
+      <c r="Y13">
+        <v>336.08000000000004</v>
+      </c>
+      <c r="Z13">
+        <v>354.60999999999996</v>
+      </c>
+      <c r="AA13">
+        <v>341.64</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>321.40999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>461.11494341519898</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>565.02414923741867</v>
+      </c>
+      <c r="F14">
+        <v>447.47194862750422</v>
+      </c>
+      <c r="G14">
+        <v>580.46045689887853</v>
+      </c>
+      <c r="H14">
+        <v>345.15123727006738</v>
+      </c>
+      <c r="I14">
+        <v>466.27046518242702</v>
+      </c>
+      <c r="J14">
+        <v>452.76612091832072</v>
+      </c>
+      <c r="K14">
+        <v>388.02308470656254</v>
+      </c>
+      <c r="L14">
+        <v>503.09878263761846</v>
+      </c>
+      <c r="M14">
+        <v>316.35024673518905</v>
+      </c>
+      <c r="N14">
+        <v>439.76709579805157</v>
+      </c>
+      <c r="O14">
+        <v>549.00794277033322</v>
+      </c>
+      <c r="P14">
+        <v>612.31503117717466</v>
+      </c>
+      <c r="Q14">
+        <v>419.50893975790115</v>
+      </c>
+      <c r="R14">
+        <v>412.37980213670551</v>
+      </c>
+      <c r="S14">
+        <v>437.12043116348673</v>
+      </c>
+      <c r="T14">
+        <v>517.1427748489134</v>
+      </c>
+      <c r="U14">
+        <v>438.76762628163959</v>
+      </c>
+      <c r="V14">
+        <v>537.30392250372586</v>
+      </c>
+      <c r="W14">
+        <v>387.3989385663607</v>
+      </c>
+      <c r="X14">
+        <v>458.80356862858969</v>
+      </c>
+      <c r="Y14">
+        <v>439.90763211140199</v>
+      </c>
+      <c r="Z14">
+        <v>395.53349313330136</v>
+      </c>
+      <c r="AA14">
+        <v>557.40854700854698</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>406.19783765284222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>454.21195262210193</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>378.52798238859356</v>
+      </c>
+      <c r="F15">
+        <v>453.07989304933744</v>
+      </c>
+      <c r="G15">
+        <v>397.11081006306284</v>
+      </c>
+      <c r="H15">
+        <v>303.49106024178371</v>
+      </c>
+      <c r="I15">
+        <v>367.61634699919841</v>
+      </c>
+      <c r="J15">
+        <v>362.36377526753864</v>
+      </c>
+      <c r="K15">
+        <v>417.44160906331302</v>
+      </c>
+      <c r="L15">
+        <v>533.35141476800266</v>
+      </c>
+      <c r="M15">
+        <v>486.40672701000574</v>
+      </c>
+      <c r="N15">
+        <v>503.81108831258462</v>
+      </c>
+      <c r="O15">
+        <v>416.62965750629212</v>
+      </c>
+      <c r="P15">
+        <v>379.72392785160929</v>
+      </c>
+      <c r="Q15">
+        <v>398.69138618058497</v>
+      </c>
+      <c r="R15">
+        <v>428.67291712089838</v>
+      </c>
+      <c r="S15">
+        <v>461.4099742798353</v>
+      </c>
+      <c r="T15">
+        <v>455.78911180403753</v>
+      </c>
+      <c r="U15">
+        <v>485.22812891688994</v>
+      </c>
+      <c r="V15">
+        <v>551.54234769001494</v>
+      </c>
+      <c r="W15">
+        <v>506.47100934737324</v>
+      </c>
+      <c r="X15">
+        <v>521.40185806788816</v>
+      </c>
+      <c r="Y15">
+        <v>593.22300836110446</v>
+      </c>
+      <c r="Z15">
+        <v>583.32645772820854</v>
+      </c>
+      <c r="AA15">
+        <v>554.95378219763495</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>449.46890295883765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>6.9029907930970467</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>186.49616684882511</v>
+      </c>
+      <c r="F16">
+        <v>-5.6079444218332242</v>
+      </c>
+      <c r="G16">
+        <v>183.34964683581569</v>
+      </c>
+      <c r="H16">
+        <v>41.66017702828367</v>
+      </c>
+      <c r="I16">
+        <v>98.654118183228604</v>
+      </c>
+      <c r="J16">
+        <v>90.402345650782081</v>
+      </c>
+      <c r="K16">
+        <v>-29.418524356750481</v>
+      </c>
+      <c r="L16">
+        <v>-30.2526321303842</v>
+      </c>
+      <c r="M16">
+        <v>-170.05648027481669</v>
+      </c>
+      <c r="N16">
+        <v>-64.043992514533045</v>
+      </c>
+      <c r="O16">
+        <v>132.3782852640411</v>
+      </c>
+      <c r="P16">
+        <v>232.59110332556537</v>
+      </c>
+      <c r="Q16">
+        <v>20.817553577316176</v>
+      </c>
+      <c r="R16">
+        <v>-16.293114984192869</v>
+      </c>
+      <c r="S16">
+        <v>-24.289543116348568</v>
+      </c>
+      <c r="T16">
+        <v>61.353663044875873</v>
+      </c>
+      <c r="U16">
+        <v>-46.46050263525035</v>
+      </c>
+      <c r="V16">
+        <v>-14.238425186289078</v>
+      </c>
+      <c r="W16">
+        <v>-119.07207078101254</v>
+      </c>
+      <c r="X16">
+        <v>-62.598289439298469</v>
+      </c>
+      <c r="Y16">
+        <v>-153.31537624970247</v>
+      </c>
+      <c r="Z16">
+        <v>-187.79296459490718</v>
+      </c>
+      <c r="AA16">
+        <v>2.4547648109120246</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>-43.271065305995421</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +2057,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB8"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2239,7 +2654,250 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>4053767.5239999997</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>227467.42199999999</v>
+      </c>
+      <c r="F8">
+        <v>197898.94400000002</v>
+      </c>
+      <c r="G8">
+        <v>236555.05</v>
+      </c>
+      <c r="H8">
+        <v>152173.72899999999</v>
+      </c>
+      <c r="I8">
+        <v>180320.777</v>
+      </c>
+      <c r="J8">
+        <v>148502.76</v>
+      </c>
+      <c r="K8">
+        <v>134217.185</v>
+      </c>
+      <c r="L8">
+        <v>151256.64899999998</v>
+      </c>
+      <c r="M8">
+        <v>116034.10699999999</v>
+      </c>
+      <c r="N8">
+        <v>165673.45799999998</v>
+      </c>
+      <c r="O8">
+        <v>242128.97300000003</v>
+      </c>
+      <c r="P8">
+        <v>194434.51500000001</v>
+      </c>
+      <c r="Q8">
+        <v>178131.886</v>
+      </c>
+      <c r="R8">
+        <v>151310.397</v>
+      </c>
+      <c r="S8">
+        <v>93473.832999999999</v>
+      </c>
+      <c r="T8">
+        <v>201090.96799999999</v>
+      </c>
+      <c r="U8">
+        <v>198134.29699999999</v>
+      </c>
+      <c r="V8">
+        <v>180265.46600000001</v>
+      </c>
+      <c r="W8">
+        <v>137596.35499999998</v>
+      </c>
+      <c r="X8">
+        <v>158007.361</v>
+      </c>
+      <c r="Y8">
+        <v>147844.15700000001</v>
+      </c>
+      <c r="Z8">
+        <v>140260.13199999998</v>
+      </c>
+      <c r="AA8">
+        <v>190433.05599999998</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>130556.04700000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3993081.7442500009</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>152387.79514999999</v>
+      </c>
+      <c r="F9">
+        <v>200379.11349999998</v>
+      </c>
+      <c r="G9">
+        <v>161834.568425</v>
+      </c>
+      <c r="H9">
+        <v>133806.17355000001</v>
+      </c>
+      <c r="I9">
+        <v>142168.269875</v>
+      </c>
+      <c r="J9">
+        <v>118851.69465</v>
+      </c>
+      <c r="K9">
+        <v>144393.05257499998</v>
+      </c>
+      <c r="L9">
+        <v>160352.10285</v>
+      </c>
+      <c r="M9">
+        <v>178409.12339999998</v>
+      </c>
+      <c r="N9">
+        <v>189800.7513</v>
+      </c>
+      <c r="O9">
+        <v>183746.17785000001</v>
+      </c>
+      <c r="P9">
+        <v>120577.53605</v>
+      </c>
+      <c r="Q9">
+        <v>169292.3364</v>
+      </c>
+      <c r="R9">
+        <v>157288.66675000003</v>
+      </c>
+      <c r="S9">
+        <v>98667.90889999998</v>
+      </c>
+      <c r="T9">
+        <v>177233.59612500001</v>
+      </c>
+      <c r="U9">
+        <v>219114.46617499998</v>
+      </c>
+      <c r="V9">
+        <v>185042.45765000003</v>
+      </c>
+      <c r="W9">
+        <v>179888.3731</v>
+      </c>
+      <c r="X9">
+        <v>179565.58589999998</v>
+      </c>
+      <c r="Y9">
+        <v>199370.38865000001</v>
+      </c>
+      <c r="Z9">
+        <v>206853.39517500001</v>
+      </c>
+      <c r="AA9">
+        <v>189594.41014999998</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>144463.80009999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>75079.626850000001</v>
+      </c>
+      <c r="F10">
+        <v>-2480.16949999996</v>
+      </c>
+      <c r="G10">
+        <v>74720.481574999983</v>
+      </c>
+      <c r="H10">
+        <v>18367.555449999985</v>
+      </c>
+      <c r="I10">
+        <v>38152.507125000004</v>
+      </c>
+      <c r="J10">
+        <v>29651.065350000004</v>
+      </c>
+      <c r="K10">
+        <v>-10175.867574999982</v>
+      </c>
+      <c r="L10">
+        <v>-9095.4538500000199</v>
+      </c>
+      <c r="M10">
+        <v>-62375.016399999993</v>
+      </c>
+      <c r="N10">
+        <v>-24127.293300000019</v>
+      </c>
+      <c r="O10">
+        <v>58382.79515000002</v>
+      </c>
+      <c r="P10">
+        <v>73856.978950000019</v>
+      </c>
+      <c r="Q10">
+        <v>8839.5495999999985</v>
+      </c>
+      <c r="R10">
+        <v>-5978.2697500000359</v>
+      </c>
+      <c r="S10">
+        <v>-5194.0758999999816</v>
+      </c>
+      <c r="T10">
+        <v>23857.371874999983</v>
+      </c>
+      <c r="U10">
+        <v>-20980.169174999988</v>
+      </c>
+      <c r="V10">
+        <v>-4776.9916500000108</v>
+      </c>
+      <c r="W10">
+        <v>-42292.018100000016</v>
+      </c>
+      <c r="X10">
+        <v>-21558.224899999972</v>
+      </c>
+      <c r="Y10">
+        <v>-51526.231650000002</v>
+      </c>
+      <c r="Z10">
+        <v>-66593.263175000029</v>
+      </c>
+      <c r="AA10">
+        <v>838.64585000000079</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-13907.753099999987</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2252,7 +2910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2851,6 +3509,255 @@
       </c>
       <c r="AB7" s="1">
         <v>468.19285645961628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8791.23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>402.58</v>
+      </c>
+      <c r="F8">
+        <v>442.26</v>
+      </c>
+      <c r="G8">
+        <v>407.53000000000003</v>
+      </c>
+      <c r="H8">
+        <v>440.89</v>
+      </c>
+      <c r="I8">
+        <v>386.73</v>
+      </c>
+      <c r="J8">
+        <v>327.99</v>
+      </c>
+      <c r="K8">
+        <v>345.90000000000003</v>
+      </c>
+      <c r="L8">
+        <v>300.64999999999998</v>
+      </c>
+      <c r="M8">
+        <v>366.78999999999996</v>
+      </c>
+      <c r="N8">
+        <v>376.73</v>
+      </c>
+      <c r="O8">
+        <v>441.03</v>
+      </c>
+      <c r="P8">
+        <v>317.53999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>424.62</v>
+      </c>
+      <c r="R8">
+        <v>366.92</v>
+      </c>
+      <c r="S8">
+        <v>213.84</v>
+      </c>
+      <c r="T8">
+        <v>388.85</v>
+      </c>
+      <c r="U8">
+        <v>451.57</v>
+      </c>
+      <c r="V8">
+        <v>335.5</v>
+      </c>
+      <c r="W8">
+        <v>355.17999999999995</v>
+      </c>
+      <c r="X8">
+        <v>344.39</v>
+      </c>
+      <c r="Y8">
+        <v>336.08000000000004</v>
+      </c>
+      <c r="Z8">
+        <v>354.60999999999996</v>
+      </c>
+      <c r="AA8">
+        <v>341.64</v>
+      </c>
+      <c r="AB8">
+        <v>321.40999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>461.11494341519898</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>565.02414923741867</v>
+      </c>
+      <c r="F9">
+        <v>447.47194862750422</v>
+      </c>
+      <c r="G9">
+        <v>580.46045689887853</v>
+      </c>
+      <c r="H9">
+        <v>345.15123727006738</v>
+      </c>
+      <c r="I9">
+        <v>466.27046518242702</v>
+      </c>
+      <c r="J9">
+        <v>452.76612091832072</v>
+      </c>
+      <c r="K9">
+        <v>388.02308470656254</v>
+      </c>
+      <c r="L9">
+        <v>503.09878263761846</v>
+      </c>
+      <c r="M9">
+        <v>316.35024673518905</v>
+      </c>
+      <c r="N9">
+        <v>439.76709579805157</v>
+      </c>
+      <c r="O9">
+        <v>549.00794277033322</v>
+      </c>
+      <c r="P9">
+        <v>612.31503117717466</v>
+      </c>
+      <c r="Q9">
+        <v>419.50893975790115</v>
+      </c>
+      <c r="R9">
+        <v>412.37980213670551</v>
+      </c>
+      <c r="S9">
+        <v>437.12043116348673</v>
+      </c>
+      <c r="T9">
+        <v>517.1427748489134</v>
+      </c>
+      <c r="U9">
+        <v>438.76762628163959</v>
+      </c>
+      <c r="V9">
+        <v>537.30392250372586</v>
+      </c>
+      <c r="W9">
+        <v>387.3989385663607</v>
+      </c>
+      <c r="X9">
+        <v>458.80356862858969</v>
+      </c>
+      <c r="Y9">
+        <v>439.90763211140199</v>
+      </c>
+      <c r="Z9">
+        <v>395.53349313330136</v>
+      </c>
+      <c r="AA9">
+        <v>557.40854700854698</v>
+      </c>
+      <c r="AB9">
+        <v>406.19783765284222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>454.21195262210193</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>378.52798238859356</v>
+      </c>
+      <c r="F10">
+        <v>453.07989304933744</v>
+      </c>
+      <c r="G10">
+        <v>397.11081006306284</v>
+      </c>
+      <c r="H10">
+        <v>303.49106024178371</v>
+      </c>
+      <c r="I10">
+        <v>367.61634699919841</v>
+      </c>
+      <c r="J10">
+        <v>362.36377526753864</v>
+      </c>
+      <c r="K10">
+        <v>417.44160906331302</v>
+      </c>
+      <c r="L10">
+        <v>533.35141476800266</v>
+      </c>
+      <c r="M10">
+        <v>486.40672701000574</v>
+      </c>
+      <c r="N10">
+        <v>503.81108831258462</v>
+      </c>
+      <c r="O10">
+        <v>416.62965750629212</v>
+      </c>
+      <c r="P10">
+        <v>379.72392785160929</v>
+      </c>
+      <c r="Q10">
+        <v>398.69138618058497</v>
+      </c>
+      <c r="R10">
+        <v>428.67291712089838</v>
+      </c>
+      <c r="S10">
+        <v>461.4099742798353</v>
+      </c>
+      <c r="T10">
+        <v>455.78911180403753</v>
+      </c>
+      <c r="U10">
+        <v>485.22812891688994</v>
+      </c>
+      <c r="V10">
+        <v>551.54234769001494</v>
+      </c>
+      <c r="W10">
+        <v>506.47100934737324</v>
+      </c>
+      <c r="X10">
+        <v>521.40185806788816</v>
+      </c>
+      <c r="Y10">
+        <v>593.22300836110446</v>
+      </c>
+      <c r="Z10">
+        <v>583.32645772820854</v>
+      </c>
+      <c r="AA10">
+        <v>554.95378219763495</v>
+      </c>
+      <c r="AB10">
+        <v>449.46890295883765</v>
       </c>
     </row>
   </sheetData>
